--- a/src/main/resources/itemprices.xlsx
+++ b/src/main/resources/itemprices.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="15">
   <si>
     <t>Corn</t>
   </si>

--- a/src/main/resources/itemprices.xlsx
+++ b/src/main/resources/itemprices.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="15">
   <si>
     <t>Corn</t>
   </si>
